--- a/不動産_管理アプリケーション_設計書.xlsx
+++ b/不動産_管理アプリケーション_設計書.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="402">
   <si>
     <t xml:space="preserve">設計書課題について</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t xml:space="preserve">備考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寺崎</t>
   </si>
   <si>
     <t xml:space="preserve">コピー用</t>
@@ -2295,9 +2298,6 @@
   </si>
   <si>
     <t xml:space="preserve">レビュー管理表、項目表修正</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寺崎</t>
   </si>
   <si>
     <t xml:space="preserve">INVENTORY_CONTROL_DB</t>
@@ -4191,9 +4191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4203,7 +4203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5013720" y="2047680"/>
-          <a:ext cx="321120" cy="382680"/>
+          <a:ext cx="320760" cy="382320"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4239,9 +4239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4251,7 +4251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5013720" y="2923920"/>
-          <a:ext cx="321120" cy="382680"/>
+          <a:ext cx="320760" cy="382320"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4287,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4299,7 +4299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5013720" y="3800160"/>
-          <a:ext cx="321120" cy="382680"/>
+          <a:ext cx="320760" cy="382320"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4335,9 +4335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4347,7 +4347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5013720" y="4676760"/>
-          <a:ext cx="321120" cy="382320"/>
+          <a:ext cx="320760" cy="381960"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4383,9 +4383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4395,7 +4395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635760" y="1938960"/>
-          <a:ext cx="2439000" cy="651600"/>
+          <a:ext cx="2438640" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4454,9 +4454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4466,7 +4466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3194280" y="4684320"/>
-          <a:ext cx="1331280" cy="605520"/>
+          <a:ext cx="1330920" cy="605160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4511,9 +4511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4522,8 +4522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3202920" y="4401360"/>
-          <a:ext cx="1312200" cy="12960"/>
+          <a:off x="3203280" y="4400640"/>
+          <a:ext cx="1311840" cy="12600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4568,9 +4568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4580,7 +4580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="645480" y="2943000"/>
-          <a:ext cx="2362680" cy="695160"/>
+          <a:ext cx="2362320" cy="694800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4631,7 +4631,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
@@ -4639,7 +4639,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>80640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4648,8 +4648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3142080" y="2736720"/>
-          <a:ext cx="1325520" cy="450720"/>
+          <a:off x="3142080" y="2736000"/>
+          <a:ext cx="1325160" cy="450360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4688,7 +4688,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
@@ -4696,7 +4696,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>82800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4705,8 +4705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3116160" y="3311640"/>
-          <a:ext cx="1353600" cy="196560"/>
+          <a:off x="3116160" y="3310920"/>
+          <a:ext cx="1353240" cy="196200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4751,9 +4751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4762,8 +4762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3187440" y="3629880"/>
-          <a:ext cx="1281960" cy="707400"/>
+          <a:off x="3187800" y="3630600"/>
+          <a:ext cx="1281600" cy="707040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4808,9 +4808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4819,8 +4819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5829840" y="1830240"/>
-          <a:ext cx="415800" cy="7200"/>
+          <a:off x="5830560" y="1829520"/>
+          <a:ext cx="415440" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4865,9 +4865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4876,8 +4876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5857560" y="2688120"/>
-          <a:ext cx="378360" cy="7200"/>
+          <a:off x="5858280" y="2687400"/>
+          <a:ext cx="378000" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4922,9 +4922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4933,8 +4933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5848200" y="3573720"/>
-          <a:ext cx="378360" cy="7200"/>
+          <a:off x="5848920" y="3573000"/>
+          <a:ext cx="378000" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4979,9 +4979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4990,8 +4990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5848200" y="4449960"/>
-          <a:ext cx="378360" cy="7200"/>
+          <a:off x="5848920" y="4449240"/>
+          <a:ext cx="378000" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5036,9 +5036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5047,8 +5047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5830920" y="5326200"/>
-          <a:ext cx="387360" cy="7200"/>
+          <a:off x="5830200" y="5325480"/>
+          <a:ext cx="387000" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5087,7 +5087,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
@@ -5095,7 +5095,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>81000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5104,8 +5104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3210840" y="1831680"/>
-          <a:ext cx="1257120" cy="410040"/>
+          <a:off x="3210840" y="1832400"/>
+          <a:ext cx="1256760" cy="409680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5150,9 +5150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5162,7 +5162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3209760" y="2322000"/>
-          <a:ext cx="1258920" cy="283680"/>
+          <a:ext cx="1258560" cy="283320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5207,9 +5207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5219,7 +5219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5013720" y="5553000"/>
-          <a:ext cx="321120" cy="382680"/>
+          <a:ext cx="320760" cy="382320"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -5255,9 +5255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5266,8 +5266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5830920" y="6202440"/>
-          <a:ext cx="387360" cy="7200"/>
+          <a:off x="5830200" y="6201720"/>
+          <a:ext cx="387000" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5312,9 +5312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5324,7 +5324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="626400" y="3975480"/>
-          <a:ext cx="2463840" cy="1211400"/>
+          <a:ext cx="2463480" cy="1211040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5394,15 +5394,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:colOff>132480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5411,8 +5411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13294440" y="1720080"/>
-          <a:ext cx="360" cy="4585320"/>
+          <a:off x="13293720" y="1720080"/>
+          <a:ext cx="360" cy="4584960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5463,9 +5463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>228240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5475,7 +5475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6664320" y="3987000"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5599,9 +5599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5611,7 +5611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="835560" y="807480"/>
-          <a:ext cx="1873440" cy="933840"/>
+          <a:ext cx="1873080" cy="933480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5700,9 +5700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5712,7 +5712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="835560" y="2407680"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5798,9 +5798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5810,7 +5810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="835560" y="4007880"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5945,7 +5945,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>102600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>226440</xdr:rowOff>
+      <xdr:rowOff>226080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5955,7 +5955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1773360" y="1743480"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6003,7 +6003,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>103320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>226800</xdr:rowOff>
+      <xdr:rowOff>226440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6013,7 +6013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1774080" y="3345120"/>
-          <a:ext cx="360" cy="660960"/>
+          <a:ext cx="360" cy="660600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6059,9 +6059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6071,7 +6071,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13161600" y="1264680"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6130,7 +6130,7 @@
       <xdr:col>64</xdr:col>
       <xdr:colOff>69120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6140,7 +6140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13439160" y="2422800"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6186,9 +6186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>218520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6198,7 +6198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12952440" y="3329640"/>
-          <a:ext cx="1357920" cy="439920"/>
+          <a:ext cx="1357560" cy="439560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6253,9 +6253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6265,7 +6265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13161600" y="4007880"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6322,9 +6322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6334,7 +6334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13344480" y="5326560"/>
-          <a:ext cx="1817280" cy="753120"/>
+          <a:ext cx="1816920" cy="752760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6403,9 +6403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6415,7 +6415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6894000" y="807480"/>
-          <a:ext cx="4267440" cy="988560"/>
+          <a:ext cx="4267080" cy="988200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6502,9 +6502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6514,7 +6514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6684840" y="2407680"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6740,7 +6740,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>115920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6750,7 +6750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7636320" y="3353400"/>
-          <a:ext cx="360" cy="660960"/>
+          <a:ext cx="360" cy="660600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6796,9 +6796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
+      <xdr:colOff>143640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6808,7 +6808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3697560" y="4008240"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6901,9 +6901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>218160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6913,7 +6913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9620640" y="3976920"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6980,7 +6980,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
@@ -6988,7 +6988,7 @@
       <xdr:col>71</xdr:col>
       <xdr:colOff>105120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6997,8 +6997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16200000">
-          <a:off x="14257440" y="2815200"/>
-          <a:ext cx="630360" cy="730080"/>
+          <a:off x="14257080" y="2815560"/>
+          <a:ext cx="630000" cy="729720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7027,15 +7027,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7044,8 +7044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14164560" y="2670480"/>
-          <a:ext cx="1234440" cy="730080"/>
+          <a:off x="14164920" y="2670840"/>
+          <a:ext cx="1234080" cy="729720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7074,15 +7074,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>21600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7091,8 +7091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1" rot="5437800">
-          <a:off x="9087840" y="3934800"/>
-          <a:ext cx="360" cy="1086480"/>
+          <a:off x="9087840" y="3929760"/>
+          <a:ext cx="360" cy="1086120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7134,13 +7134,13 @@
       <xdr:col>66</xdr:col>
       <xdr:colOff>720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7149,8 +7149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16255800">
-          <a:off x="14119200" y="2083320"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:off x="14119560" y="2084040"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7198,7 +7198,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>115920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7208,7 +7208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7636320" y="4944960"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7254,9 +7254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7266,7 +7266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6654600" y="5605560"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7336,15 +7336,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>196560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7353,8 +7353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5367000">
-          <a:off x="14070960" y="2314080"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:off x="14071320" y="2314800"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7394,7 +7394,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
@@ -7402,7 +7402,7 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>27360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7411,8 +7411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5367000">
-          <a:off x="8938800" y="4533840"/>
-          <a:ext cx="1125000" cy="1942200"/>
+          <a:off x="8939520" y="4534200"/>
+          <a:ext cx="1124640" cy="1941840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7452,7 +7452,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47160</xdr:rowOff>
     </xdr:from>
@@ -7460,7 +7460,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7469,8 +7469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5367000">
-          <a:off x="3068640" y="4560120"/>
-          <a:ext cx="1125000" cy="1942200"/>
+          <a:off x="3069360" y="4560480"/>
+          <a:ext cx="1124640" cy="1941840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7516,9 +7516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7528,7 +7528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="784080" y="5652360"/>
-          <a:ext cx="1878120" cy="935280"/>
+          <a:ext cx="1877760" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7606,7 +7606,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>84600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7616,7 +7616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1755360" y="4965840"/>
-          <a:ext cx="360" cy="662040"/>
+          <a:ext cx="360" cy="661680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7656,7 +7656,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>219600</xdr:rowOff>
     </xdr:from>
@@ -7664,7 +7664,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>110160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7673,8 +7673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16233000">
-          <a:off x="3171960" y="2446560"/>
-          <a:ext cx="1125000" cy="1942200"/>
+          <a:off x="3173040" y="2446920"/>
+          <a:ext cx="1124640" cy="1941840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7714,7 +7714,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>199080</xdr:rowOff>
     </xdr:from>
@@ -7722,7 +7722,7 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>100080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7731,8 +7731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16233000">
-          <a:off x="9011160" y="2426040"/>
-          <a:ext cx="1125000" cy="1942200"/>
+          <a:off x="9012240" y="2426400"/>
+          <a:ext cx="1124640" cy="1941840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7772,7 +7772,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:from>
@@ -7780,7 +7780,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>204840</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7789,8 +7789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="16233000">
-          <a:off x="4488120" y="-726480"/>
-          <a:ext cx="1291680" cy="4764240"/>
+          <a:off x="4488840" y="-726480"/>
+          <a:ext cx="1291320" cy="4763880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7841,9 +7841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
+      <xdr:colOff>29520</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7852,8 +7852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6037200" y="9052560"/>
-          <a:ext cx="2557800" cy="3079440"/>
+          <a:off x="6037560" y="9051840"/>
+          <a:ext cx="2557440" cy="3079080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7871,7 +7871,7 @@
               <a:srgbClr val="ffd590"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000"/>
+          <a:lin ang="16200000"/>
         </a:gradFill>
         <a:ln w="6480">
           <a:solidFill>
@@ -7940,9 +7940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7956,7 +7956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13365000" y="3673440"/>
-          <a:ext cx="2590920" cy="1861920"/>
+          <a:ext cx="2590560" cy="1861560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7977,9 +7977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7989,7 +7989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15677640" y="2953800"/>
-          <a:ext cx="2871720" cy="643680"/>
+          <a:ext cx="2871360" cy="643320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8067,9 +8067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8079,7 +8079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1425960" y="8073000"/>
-          <a:ext cx="2880720" cy="445320"/>
+          <a:ext cx="2880360" cy="444960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8162,9 +8162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8178,7 +8178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13365000" y="10882440"/>
-          <a:ext cx="2590920" cy="1861920"/>
+          <a:ext cx="2590560" cy="1861560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8199,9 +8199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8211,7 +8211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1424880" y="10486080"/>
-          <a:ext cx="2881800" cy="333000"/>
+          <a:ext cx="2881440" cy="332640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8294,9 +8294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8306,7 +8306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6035760" y="1327680"/>
-          <a:ext cx="2558880" cy="437040"/>
+          <a:ext cx="2558520" cy="436680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8393,9 +8393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>85320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8405,7 +8405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6294240" y="2115720"/>
-          <a:ext cx="2565720" cy="437400"/>
+          <a:ext cx="2565360" cy="437040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8501,9 +8501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8517,7 +8517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13365000" y="2446560"/>
-          <a:ext cx="2590920" cy="1861920"/>
+          <a:ext cx="2590560" cy="1861560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8538,9 +8538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8550,7 +8550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15677280" y="1726560"/>
-          <a:ext cx="2872080" cy="644040"/>
+          <a:ext cx="2871720" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8628,9 +8628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8640,7 +8640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1424160" y="3978360"/>
-          <a:ext cx="2882520" cy="332640"/>
+          <a:ext cx="2882160" cy="332280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8727,9 +8727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8739,7 +8739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10816560" y="3338640"/>
-          <a:ext cx="3368880" cy="1198080"/>
+          <a:ext cx="3368520" cy="1197720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8854,9 +8854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8866,7 +8866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8356320" y="1110960"/>
-          <a:ext cx="5938920" cy="1726560"/>
+          <a:ext cx="5938560" cy="1726200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9110,9 +9110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9122,7 +9122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10056240" y="5177160"/>
-          <a:ext cx="3445200" cy="887040"/>
+          <a:ext cx="3444840" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9252,9 +9252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9264,7 +9264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10816560" y="3338640"/>
-          <a:ext cx="3368880" cy="1198080"/>
+          <a:ext cx="3368520" cy="1197720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9379,9 +9379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9391,7 +9391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8356320" y="1110960"/>
-          <a:ext cx="5938920" cy="1726560"/>
+          <a:ext cx="5938560" cy="1726200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9635,9 +9635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9647,7 +9647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10056240" y="5177160"/>
-          <a:ext cx="3445200" cy="887040"/>
+          <a:ext cx="3444840" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12373,7 +12373,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12510,7 +12510,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
@@ -12580,7 +12580,7 @@
       <c r="H6" s="100"/>
       <c r="I6" s="100"/>
       <c r="V6" s="105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W6" s="105"/>
       <c r="X6" s="105"/>
@@ -12667,28 +12667,28 @@
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
       <c r="V10" s="64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W10" s="64"/>
       <c r="X10" s="64"/>
       <c r="Y10" s="64"/>
       <c r="Z10" s="64"/>
       <c r="AA10" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64"/>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -13460,7 +13460,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -13468,7 +13468,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -13489,7 +13489,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -13502,7 +13502,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -13534,7 +13534,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -13542,7 +13542,7 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
@@ -13561,7 +13561,7 @@
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI28" s="39"/>
       <c r="AJ28" s="39"/>
@@ -14276,7 +14276,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14413,7 +14413,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
@@ -14582,80 +14582,80 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="69"/>
       <c r="C15" s="64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
       <c r="I15" s="64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="64"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
       <c r="X15" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y15" s="64"/>
       <c r="Z15" s="64"/>
       <c r="AA15" s="64"/>
       <c r="AB15" s="64"/>
       <c r="AC15" s="64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD15" s="64"/>
       <c r="AE15" s="64"/>
       <c r="AF15" s="64"/>
       <c r="AG15" s="64"/>
       <c r="AH15" s="64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AI15" s="64"/>
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
       <c r="AM15" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN15" s="64"/>
       <c r="AO15" s="64"/>
       <c r="AP15" s="64"/>
       <c r="AQ15" s="64"/>
       <c r="AR15" s="64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS15" s="64"/>
       <c r="AT15" s="64"/>
       <c r="AU15" s="64"/>
       <c r="AV15" s="64"/>
       <c r="AW15" s="64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX15" s="64"/>
       <c r="AY15" s="64"/>
       <c r="AZ15" s="64"/>
       <c r="BA15" s="64"/>
       <c r="BB15" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BC15" s="64"/>
       <c r="BD15" s="64"/>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -15282,7 +15282,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -15290,7 +15290,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -15311,7 +15311,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -15324,7 +15324,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -15362,14 +15362,14 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
       <c r="V28" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -15430,14 +15430,14 @@
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
       <c r="V29" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -16065,7 +16065,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16212,7 +16212,7 @@
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="59"/>
       <c r="B5" s="109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -16286,7 +16286,7 @@
       <c r="K6" s="109"/>
       <c r="L6" s="69"/>
       <c r="V6" s="105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W6" s="105"/>
       <c r="X6" s="105"/>
@@ -16386,28 +16386,28 @@
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
       <c r="V10" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W10" s="64"/>
       <c r="X10" s="64"/>
       <c r="Y10" s="64"/>
       <c r="Z10" s="64"/>
       <c r="AA10" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64"/>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -17208,7 +17208,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -17216,7 +17216,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -17237,7 +17237,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -17250,7 +17250,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -17282,7 +17282,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -17290,14 +17290,14 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
       <c r="V28" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -17311,7 +17311,7 @@
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI28" s="39"/>
       <c r="AJ28" s="39"/>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -17365,7 +17365,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
       <c r="V29" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -18030,7 +18030,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,7 +18225,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="47"/>
       <c r="D6" s="112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="BG6" s="59"/>
@@ -18233,7 +18233,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="47"/>
       <c r="E7" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -18300,7 +18300,7 @@
       <c r="B9" s="47"/>
       <c r="E9" s="4"/>
       <c r="F9" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD9" s="115"/>
       <c r="AE9" s="110"/>
@@ -18335,7 +18335,7 @@
       <c r="B10" s="47"/>
       <c r="E10" s="4"/>
       <c r="I10" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD10" s="115"/>
       <c r="AE10" s="110"/>
@@ -18402,7 +18402,7 @@
       <c r="B12" s="47"/>
       <c r="E12" s="4"/>
       <c r="F12" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AD12" s="113"/>
       <c r="AE12" s="114"/>
@@ -18437,7 +18437,7 @@
       <c r="B13" s="47"/>
       <c r="E13" s="4"/>
       <c r="I13" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD13" s="115"/>
       <c r="AE13" s="110"/>
@@ -18537,7 +18537,7 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="47"/>
       <c r="D17" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="BG17" s="59"/>
@@ -18550,7 +18550,7 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="F19" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="BG19" s="59"/>
@@ -18558,7 +18558,7 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="H20" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AE20" s="4"/>
       <c r="BG20" s="59"/>
@@ -18574,14 +18574,14 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="47"/>
       <c r="F23" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BG23" s="59"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="47"/>
       <c r="H24" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BG24" s="59"/>
     </row>
@@ -18596,7 +18596,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="47"/>
       <c r="D27" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BG27" s="48"/>
     </row>
@@ -18607,14 +18607,14 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="47"/>
       <c r="F29" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BG29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="47"/>
       <c r="H30" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BG30" s="48"/>
     </row>
@@ -18629,14 +18629,14 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="47"/>
       <c r="F33" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG33" s="48"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="47"/>
       <c r="H34" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG34" s="48"/>
     </row>
@@ -18692,7 +18692,7 @@
       <c r="AO37" s="117"/>
       <c r="AP37" s="116"/>
       <c r="AQ37" s="116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AR37" s="116"/>
       <c r="AS37" s="116"/>
@@ -18749,49 +18749,49 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="47"/>
       <c r="D48" s="112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BG48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="47"/>
       <c r="E49" s="112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BG49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="47"/>
       <c r="F50" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BG50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="47"/>
       <c r="G51" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BG51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="47"/>
       <c r="H52" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BG52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="47"/>
       <c r="G53" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BG53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="47"/>
       <c r="H54" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BG54" s="48"/>
     </row>
@@ -18802,14 +18802,14 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="47"/>
       <c r="G56" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BG56" s="48"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="47"/>
       <c r="H57" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BG57" s="48"/>
     </row>
@@ -18820,21 +18820,21 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="47"/>
       <c r="G59" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BG59" s="48"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="47"/>
       <c r="H60" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BG60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="47"/>
       <c r="H61" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I61" s="119"/>
       <c r="J61" s="119"/>
@@ -18843,7 +18843,7 @@
       <c r="M61" s="119"/>
       <c r="N61" s="119"/>
       <c r="O61" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P61" s="121"/>
       <c r="Q61" s="121"/>
@@ -18870,7 +18870,7 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="47"/>
       <c r="H62" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I62" s="123"/>
       <c r="J62" s="123"/>
@@ -18879,7 +18879,7 @@
       <c r="M62" s="123"/>
       <c r="N62" s="123"/>
       <c r="O62" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
@@ -18888,7 +18888,7 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
@@ -18906,7 +18906,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="47"/>
       <c r="H63" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
@@ -18915,7 +18915,7 @@
       <c r="M63" s="123"/>
       <c r="N63" s="123"/>
       <c r="O63" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
@@ -18940,7 +18940,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="47"/>
       <c r="H64" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I64" s="123"/>
       <c r="J64" s="123"/>
@@ -18949,7 +18949,7 @@
       <c r="M64" s="123"/>
       <c r="N64" s="123"/>
       <c r="O64" s="124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
@@ -18974,7 +18974,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="47"/>
       <c r="H65" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I65" s="123"/>
       <c r="J65" s="123"/>
@@ -19008,7 +19008,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="47"/>
       <c r="H66" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I66" s="123"/>
       <c r="J66" s="123"/>
@@ -19046,14 +19046,14 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="47"/>
       <c r="H68" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG68" s="48"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="47"/>
       <c r="H69" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I69" s="119"/>
       <c r="J69" s="119"/>
@@ -19062,12 +19062,12 @@
       <c r="M69" s="119"/>
       <c r="N69" s="119"/>
       <c r="O69" s="118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P69" s="119"/>
       <c r="Q69" s="119"/>
       <c r="R69" s="118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S69" s="119"/>
       <c r="T69" s="119"/>
@@ -19089,7 +19089,7 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="47"/>
       <c r="H70" s="129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I70" s="129"/>
       <c r="J70" s="129"/>
@@ -19098,12 +19098,12 @@
       <c r="M70" s="129"/>
       <c r="N70" s="129"/>
       <c r="O70" s="129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P70" s="129"/>
       <c r="Q70" s="129"/>
       <c r="R70" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S70" s="125"/>
       <c r="T70" s="125"/>
@@ -19125,7 +19125,7 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="47"/>
       <c r="H71" s="131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I71" s="131"/>
       <c r="J71" s="131"/>
@@ -19134,7 +19134,7 @@
       <c r="M71" s="131"/>
       <c r="N71" s="131"/>
       <c r="O71" s="132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P71" s="125"/>
       <c r="Q71" s="125"/>
@@ -19163,14 +19163,14 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="47"/>
       <c r="H73" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG73" s="48"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="47"/>
       <c r="H74" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I74" s="119"/>
       <c r="J74" s="119"/>
@@ -19179,7 +19179,7 @@
       <c r="M74" s="119"/>
       <c r="N74" s="119"/>
       <c r="O74" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P74" s="121"/>
       <c r="Q74" s="121"/>
@@ -19188,7 +19188,7 @@
       <c r="T74" s="121"/>
       <c r="U74" s="121"/>
       <c r="V74" s="120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W74" s="121"/>
       <c r="X74" s="121"/>
@@ -19206,7 +19206,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="47"/>
       <c r="H75" s="133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I75" s="133"/>
       <c r="J75" s="133"/>
@@ -19215,7 +19215,7 @@
       <c r="M75" s="133"/>
       <c r="N75" s="133"/>
       <c r="O75" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -19224,7 +19224,7 @@
       <c r="T75" s="17"/>
       <c r="U75" s="17"/>
       <c r="V75" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
@@ -19238,7 +19238,7 @@
       <c r="AF75" s="125"/>
       <c r="AG75" s="126"/>
       <c r="AJ75" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG75" s="48"/>
     </row>
@@ -19252,7 +19252,7 @@
       <c r="M76" s="133"/>
       <c r="N76" s="133"/>
       <c r="O76" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
@@ -19261,7 +19261,7 @@
       <c r="T76" s="17"/>
       <c r="U76" s="17"/>
       <c r="V76" s="124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
@@ -19286,7 +19286,7 @@
       <c r="M77" s="133"/>
       <c r="N77" s="133"/>
       <c r="O77" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
@@ -19295,7 +19295,7 @@
       <c r="T77" s="17"/>
       <c r="U77" s="17"/>
       <c r="V77" s="124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
@@ -19320,7 +19320,7 @@
       <c r="M78" s="133"/>
       <c r="N78" s="133"/>
       <c r="O78" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
@@ -19329,7 +19329,7 @@
       <c r="T78" s="17"/>
       <c r="U78" s="17"/>
       <c r="V78" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
@@ -19354,7 +19354,7 @@
       <c r="M79" s="133"/>
       <c r="N79" s="133"/>
       <c r="O79" s="124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -19363,7 +19363,7 @@
       <c r="T79" s="17"/>
       <c r="U79" s="17"/>
       <c r="V79" s="124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
@@ -19385,14 +19385,14 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="47"/>
       <c r="H81" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BG81" s="48"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="47"/>
       <c r="I82" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BG82" s="48"/>
     </row>
@@ -19403,28 +19403,28 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="47"/>
       <c r="H84" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BG84" s="48"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="47"/>
       <c r="I85" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG85" s="48"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="47"/>
       <c r="H86" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BG86" s="48"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="47"/>
       <c r="I87" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BG87" s="48"/>
     </row>
@@ -19435,7 +19435,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="47"/>
       <c r="E89" s="112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BG89" s="48"/>
     </row>
@@ -19608,7 +19608,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -19737,7 +19737,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19803,7 +19803,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="47"/>
       <c r="D6" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BG6" s="48"/>
     </row>
@@ -19818,14 +19818,14 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="47"/>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BG9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="G10" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H10" s="119"/>
       <c r="I10" s="119"/>
@@ -19834,7 +19834,7 @@
       <c r="L10" s="119"/>
       <c r="M10" s="119"/>
       <c r="N10" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O10" s="121"/>
       <c r="P10" s="121"/>
@@ -19861,7 +19861,7 @@
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="47"/>
       <c r="G11" s="134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H11" s="134"/>
       <c r="I11" s="134"/>
@@ -19870,7 +19870,7 @@
       <c r="L11" s="134"/>
       <c r="M11" s="134"/>
       <c r="N11" s="135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O11" s="135"/>
       <c r="P11" s="135"/>
@@ -19879,7 +19879,7 @@
       <c r="S11" s="135"/>
       <c r="T11" s="135"/>
       <c r="U11" s="124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
@@ -19897,7 +19897,7 @@
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="47"/>
       <c r="G12" s="134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="134"/>
       <c r="I12" s="134"/>
@@ -19906,7 +19906,7 @@
       <c r="L12" s="134"/>
       <c r="M12" s="134"/>
       <c r="N12" s="136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O12" s="136"/>
       <c r="P12" s="136"/>
@@ -19931,7 +19931,7 @@
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="G13" s="134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H13" s="134"/>
       <c r="I13" s="134"/>
@@ -19940,7 +19940,7 @@
       <c r="L13" s="134"/>
       <c r="M13" s="134"/>
       <c r="N13" s="135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O13" s="135"/>
       <c r="P13" s="135"/>
@@ -19961,7 +19961,7 @@
       <c r="AE13" s="125"/>
       <c r="AF13" s="126"/>
       <c r="AW13" s="56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AX13" s="56"/>
       <c r="AY13" s="56"/>
@@ -19973,7 +19973,7 @@
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="47"/>
       <c r="G14" s="134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H14" s="134"/>
       <c r="I14" s="134"/>
@@ -19982,7 +19982,7 @@
       <c r="L14" s="134"/>
       <c r="M14" s="134"/>
       <c r="N14" s="136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="136"/>
       <c r="P14" s="136"/>
@@ -20003,7 +20003,7 @@
       <c r="AE14" s="125"/>
       <c r="AF14" s="126"/>
       <c r="AW14" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AX14" s="56"/>
       <c r="AY14" s="56"/>
@@ -20015,7 +20015,7 @@
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="47"/>
       <c r="G15" s="134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H15" s="134"/>
       <c r="I15" s="134"/>
@@ -20024,7 +20024,7 @@
       <c r="L15" s="134"/>
       <c r="M15" s="134"/>
       <c r="N15" s="136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O15" s="136"/>
       <c r="P15" s="136"/>
@@ -20045,7 +20045,7 @@
       <c r="AE15" s="125"/>
       <c r="AF15" s="126"/>
       <c r="AW15" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AX15" s="56"/>
       <c r="AY15" s="56"/>
@@ -20057,7 +20057,7 @@
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="G16" s="134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="134"/>
       <c r="I16" s="134"/>
@@ -20066,7 +20066,7 @@
       <c r="L16" s="134"/>
       <c r="M16" s="134"/>
       <c r="N16" s="138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O16" s="138"/>
       <c r="P16" s="138"/>
@@ -20087,7 +20087,7 @@
       <c r="AE16" s="125"/>
       <c r="AF16" s="126"/>
       <c r="AW16" s="56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX16" s="56"/>
       <c r="AY16" s="56"/>
@@ -20099,10 +20099,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="47"/>
       <c r="G17" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AW17" s="56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AX17" s="56"/>
       <c r="AY17" s="56"/>
@@ -20114,7 +20114,7 @@
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="47"/>
       <c r="G18" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
@@ -20123,12 +20123,12 @@
       <c r="L18" s="119"/>
       <c r="M18" s="119"/>
       <c r="N18" s="118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O18" s="119"/>
       <c r="P18" s="119"/>
       <c r="Q18" s="118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R18" s="119"/>
       <c r="S18" s="119"/>
@@ -20146,7 +20146,7 @@
       <c r="AE18" s="121"/>
       <c r="AF18" s="128"/>
       <c r="AW18" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AX18" s="56"/>
       <c r="AY18" s="56"/>
@@ -20158,7 +20158,7 @@
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="G19" s="139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -20167,12 +20167,12 @@
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
       <c r="N19" s="139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O19" s="139"/>
       <c r="P19" s="139"/>
       <c r="Q19" s="130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R19" s="125"/>
       <c r="S19" s="125"/>
@@ -20194,7 +20194,7 @@
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="G20" s="140" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H20" s="140"/>
       <c r="I20" s="140"/>
@@ -20203,7 +20203,7 @@
       <c r="L20" s="140"/>
       <c r="M20" s="140"/>
       <c r="N20" s="141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O20" s="141"/>
       <c r="P20" s="141"/>
@@ -20228,7 +20228,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="47"/>
       <c r="G21" s="139" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H21" s="139"/>
       <c r="I21" s="139"/>
@@ -20237,12 +20237,12 @@
       <c r="L21" s="139"/>
       <c r="M21" s="139"/>
       <c r="N21" s="141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O21" s="141"/>
       <c r="P21" s="141"/>
       <c r="Q21" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R21" s="125"/>
       <c r="S21" s="125"/>
@@ -20264,7 +20264,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="47"/>
       <c r="G22" s="140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H22" s="140"/>
       <c r="I22" s="140"/>
@@ -20273,7 +20273,7 @@
       <c r="L22" s="140"/>
       <c r="M22" s="140"/>
       <c r="N22" s="141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O22" s="141"/>
       <c r="P22" s="141"/>
@@ -20308,7 +20308,7 @@
       <c r="O23" s="141"/>
       <c r="P23" s="141"/>
       <c r="Q23" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R23" s="125"/>
       <c r="S23" s="125"/>
@@ -20370,7 +20370,7 @@
       <c r="O25" s="141"/>
       <c r="P25" s="141"/>
       <c r="Q25" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R25" s="125"/>
       <c r="S25" s="125"/>
@@ -20432,7 +20432,7 @@
       <c r="O27" s="141"/>
       <c r="P27" s="141"/>
       <c r="Q27" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R27" s="125"/>
       <c r="S27" s="125"/>
@@ -20494,7 +20494,7 @@
       <c r="O29" s="141"/>
       <c r="P29" s="141"/>
       <c r="Q29" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R29" s="125"/>
       <c r="S29" s="125"/>
@@ -20556,7 +20556,7 @@
       <c r="O31" s="141"/>
       <c r="P31" s="141"/>
       <c r="Q31" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R31" s="125"/>
       <c r="S31" s="125"/>
@@ -20624,14 +20624,14 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="47"/>
       <c r="G41" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG41" s="48"/>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="47"/>
       <c r="G42" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H42" s="119"/>
       <c r="I42" s="119"/>
@@ -20640,7 +20640,7 @@
       <c r="L42" s="119"/>
       <c r="M42" s="119"/>
       <c r="N42" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O42" s="121"/>
       <c r="P42" s="121"/>
@@ -20649,7 +20649,7 @@
       <c r="S42" s="121"/>
       <c r="T42" s="121"/>
       <c r="U42" s="120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V42" s="121"/>
       <c r="W42" s="121"/>
@@ -20667,7 +20667,7 @@
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="47"/>
       <c r="G43" s="133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H43" s="133"/>
       <c r="I43" s="133"/>
@@ -20676,7 +20676,7 @@
       <c r="L43" s="133"/>
       <c r="M43" s="133"/>
       <c r="N43" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
@@ -20685,7 +20685,7 @@
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="V43" s="17"/>
       <c r="W43" s="17"/>
@@ -20699,7 +20699,7 @@
       <c r="AE43" s="125"/>
       <c r="AF43" s="126"/>
       <c r="AI43" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG43" s="48"/>
     </row>
@@ -20713,7 +20713,7 @@
       <c r="L44" s="133"/>
       <c r="M44" s="133"/>
       <c r="N44" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -20722,7 +20722,7 @@
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
       <c r="U44" s="124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V44" s="17"/>
       <c r="W44" s="17"/>
@@ -20747,7 +20747,7 @@
       <c r="L45" s="133"/>
       <c r="M45" s="133"/>
       <c r="N45" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
@@ -20756,7 +20756,7 @@
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
       <c r="U45" s="124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V45" s="17"/>
       <c r="W45" s="17"/>
@@ -20781,7 +20781,7 @@
       <c r="L46" s="133"/>
       <c r="M46" s="133"/>
       <c r="N46" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -20790,7 +20790,7 @@
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
       <c r="U46" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
@@ -20815,7 +20815,7 @@
       <c r="L47" s="133"/>
       <c r="M47" s="133"/>
       <c r="N47" s="124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
@@ -20824,7 +20824,7 @@
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
@@ -20858,7 +20858,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="47"/>
       <c r="F52" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BG52" s="48"/>
     </row>
@@ -20870,21 +20870,21 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="47"/>
       <c r="G54" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BG54" s="48"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="47"/>
       <c r="F55" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BG55" s="48"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="47"/>
       <c r="G56" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BG56" s="48"/>
     </row>
@@ -20899,49 +20899,49 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="47"/>
       <c r="D59" s="112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BG59" s="48"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="47"/>
       <c r="E60" s="112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BG60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="47"/>
       <c r="F61" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BG61" s="48"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="47"/>
       <c r="G62" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BG62" s="48"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="47"/>
       <c r="H63" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BG63" s="48"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="47"/>
       <c r="G64" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BG64" s="48"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="47"/>
       <c r="H65" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BG65" s="48"/>
     </row>
@@ -20952,14 +20952,14 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="47"/>
       <c r="G67" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BG67" s="48"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="47"/>
       <c r="H68" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BG68" s="48"/>
     </row>
@@ -20970,21 +20970,21 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="47"/>
       <c r="G70" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BG70" s="48"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="47"/>
       <c r="H71" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BG71" s="48"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="47"/>
       <c r="H72" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I72" s="119"/>
       <c r="J72" s="119"/>
@@ -20993,7 +20993,7 @@
       <c r="M72" s="119"/>
       <c r="N72" s="119"/>
       <c r="O72" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P72" s="121"/>
       <c r="Q72" s="121"/>
@@ -21020,7 +21020,7 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="47"/>
       <c r="H73" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I73" s="123"/>
       <c r="J73" s="123"/>
@@ -21029,7 +21029,7 @@
       <c r="M73" s="123"/>
       <c r="N73" s="123"/>
       <c r="O73" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
@@ -21038,7 +21038,7 @@
       <c r="T73" s="17"/>
       <c r="U73" s="17"/>
       <c r="V73" s="124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
@@ -21056,7 +21056,7 @@
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="47"/>
       <c r="H74" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I74" s="123"/>
       <c r="J74" s="123"/>
@@ -21065,7 +21065,7 @@
       <c r="M74" s="123"/>
       <c r="N74" s="123"/>
       <c r="O74" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
@@ -21090,7 +21090,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="47"/>
       <c r="H75" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I75" s="123"/>
       <c r="J75" s="123"/>
@@ -21099,7 +21099,7 @@
       <c r="M75" s="123"/>
       <c r="N75" s="123"/>
       <c r="O75" s="124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -21124,7 +21124,7 @@
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="47"/>
       <c r="H76" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I76" s="123"/>
       <c r="J76" s="123"/>
@@ -21158,7 +21158,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="47"/>
       <c r="H77" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I77" s="123"/>
       <c r="J77" s="123"/>
@@ -21196,14 +21196,14 @@
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="47"/>
       <c r="H79" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG79" s="48"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="47"/>
       <c r="H80" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I80" s="119"/>
       <c r="J80" s="119"/>
@@ -21212,12 +21212,12 @@
       <c r="M80" s="119"/>
       <c r="N80" s="119"/>
       <c r="O80" s="118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P80" s="119"/>
       <c r="Q80" s="119"/>
       <c r="R80" s="118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S80" s="119"/>
       <c r="T80" s="119"/>
@@ -21239,7 +21239,7 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="47"/>
       <c r="H81" s="129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I81" s="129"/>
       <c r="J81" s="129"/>
@@ -21248,12 +21248,12 @@
       <c r="M81" s="129"/>
       <c r="N81" s="129"/>
       <c r="O81" s="129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P81" s="129"/>
       <c r="Q81" s="129"/>
       <c r="R81" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S81" s="125"/>
       <c r="T81" s="125"/>
@@ -21275,7 +21275,7 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="47"/>
       <c r="H82" s="131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I82" s="131"/>
       <c r="J82" s="131"/>
@@ -21284,7 +21284,7 @@
       <c r="M82" s="131"/>
       <c r="N82" s="131"/>
       <c r="O82" s="132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P82" s="125"/>
       <c r="Q82" s="125"/>
@@ -21313,14 +21313,14 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="47"/>
       <c r="H84" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG84" s="48"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="47"/>
       <c r="H85" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I85" s="119"/>
       <c r="J85" s="119"/>
@@ -21329,7 +21329,7 @@
       <c r="M85" s="119"/>
       <c r="N85" s="119"/>
       <c r="O85" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P85" s="121"/>
       <c r="Q85" s="121"/>
@@ -21338,7 +21338,7 @@
       <c r="T85" s="121"/>
       <c r="U85" s="121"/>
       <c r="V85" s="120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W85" s="121"/>
       <c r="X85" s="121"/>
@@ -21356,7 +21356,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="47"/>
       <c r="H86" s="133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I86" s="133"/>
       <c r="J86" s="133"/>
@@ -21365,7 +21365,7 @@
       <c r="M86" s="133"/>
       <c r="N86" s="133"/>
       <c r="O86" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -21374,7 +21374,7 @@
       <c r="T86" s="17"/>
       <c r="U86" s="17"/>
       <c r="V86" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W86" s="17"/>
       <c r="X86" s="17"/>
@@ -21388,7 +21388,7 @@
       <c r="AF86" s="125"/>
       <c r="AG86" s="126"/>
       <c r="AJ86" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG86" s="48"/>
     </row>
@@ -21402,7 +21402,7 @@
       <c r="M87" s="133"/>
       <c r="N87" s="133"/>
       <c r="O87" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -21411,7 +21411,7 @@
       <c r="T87" s="17"/>
       <c r="U87" s="17"/>
       <c r="V87" s="124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W87" s="17"/>
       <c r="X87" s="17"/>
@@ -21436,7 +21436,7 @@
       <c r="M88" s="133"/>
       <c r="N88" s="133"/>
       <c r="O88" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
@@ -21445,7 +21445,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
       <c r="V88" s="124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
@@ -21470,7 +21470,7 @@
       <c r="M89" s="133"/>
       <c r="N89" s="133"/>
       <c r="O89" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
@@ -21479,7 +21479,7 @@
       <c r="T89" s="17"/>
       <c r="U89" s="17"/>
       <c r="V89" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
@@ -21504,7 +21504,7 @@
       <c r="M90" s="133"/>
       <c r="N90" s="133"/>
       <c r="O90" s="124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -21513,7 +21513,7 @@
       <c r="T90" s="17"/>
       <c r="U90" s="17"/>
       <c r="V90" s="124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
@@ -21535,14 +21535,14 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="47"/>
       <c r="H92" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BG92" s="48"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="47"/>
       <c r="I93" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BG93" s="48"/>
     </row>
@@ -21553,28 +21553,28 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="47"/>
       <c r="H95" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BG95" s="48"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="47"/>
       <c r="I96" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG96" s="48"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="47"/>
       <c r="H97" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BG97" s="48"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="47"/>
       <c r="I98" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BG98" s="48"/>
     </row>
@@ -21585,7 +21585,7 @@
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="47"/>
       <c r="E100" s="112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BG100" s="48"/>
     </row>
@@ -21798,7 +21798,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -21927,7 +21927,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21993,35 +21993,35 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="47"/>
       <c r="D6" s="112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BG6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="47"/>
       <c r="E7" s="112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BG7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="47"/>
       <c r="E8" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BG8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="47"/>
       <c r="F9" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BG9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="F10" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="119"/>
       <c r="H10" s="119"/>
@@ -22030,12 +22030,12 @@
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
       <c r="M10" s="118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N10" s="119"/>
       <c r="O10" s="119"/>
       <c r="P10" s="118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
@@ -22057,7 +22057,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="47"/>
       <c r="F11" s="132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>
@@ -22066,12 +22066,12 @@
       <c r="K11" s="125"/>
       <c r="L11" s="125"/>
       <c r="M11" s="132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N11" s="125"/>
       <c r="O11" s="125"/>
       <c r="P11" s="127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="125"/>
       <c r="R11" s="125"/>
@@ -22097,14 +22097,14 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="F13" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="47"/>
       <c r="F14" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G14" s="119"/>
       <c r="H14" s="119"/>
@@ -22113,7 +22113,7 @@
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
       <c r="M14" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N14" s="121"/>
       <c r="O14" s="121"/>
@@ -22122,7 +22122,7 @@
       <c r="R14" s="121"/>
       <c r="S14" s="121"/>
       <c r="T14" s="120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U14" s="121"/>
       <c r="V14" s="121"/>
@@ -22140,7 +22140,7 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="47"/>
       <c r="F15" s="132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
@@ -22149,7 +22149,7 @@
       <c r="K15" s="125"/>
       <c r="L15" s="125"/>
       <c r="M15" s="124" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -22176,7 +22176,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="G16" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BG16" s="48"/>
     </row>
@@ -22187,28 +22187,28 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="47"/>
       <c r="F18" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BG18" s="48"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="G19" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BG19" s="48"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="F20" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BG20" s="48"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="47"/>
       <c r="G21" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BG21" s="48"/>
     </row>
@@ -22223,49 +22223,49 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="47"/>
       <c r="D24" s="112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BG24" s="48"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="47"/>
       <c r="E25" s="112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BG25" s="48"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="47"/>
       <c r="F26" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BG26" s="48"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="47"/>
       <c r="G27" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BG27" s="48"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="47"/>
       <c r="H28" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BG28" s="48"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="47"/>
       <c r="G29" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BG29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="47"/>
       <c r="H30" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BG30" s="48"/>
     </row>
@@ -22276,14 +22276,14 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="47"/>
       <c r="G32" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BG32" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="47"/>
       <c r="H33" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BG33" s="48"/>
     </row>
@@ -22294,21 +22294,21 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="47"/>
       <c r="G35" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BG35" s="48"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="47"/>
       <c r="H36" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BG36" s="48"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="47"/>
       <c r="H37" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I37" s="119"/>
       <c r="J37" s="119"/>
@@ -22317,7 +22317,7 @@
       <c r="M37" s="119"/>
       <c r="N37" s="119"/>
       <c r="O37" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P37" s="121"/>
       <c r="Q37" s="121"/>
@@ -22344,7 +22344,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="47"/>
       <c r="H38" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I38" s="123"/>
       <c r="J38" s="123"/>
@@ -22353,7 +22353,7 @@
       <c r="M38" s="123"/>
       <c r="N38" s="123"/>
       <c r="O38" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
@@ -22362,7 +22362,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
@@ -22380,7 +22380,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="47"/>
       <c r="H39" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I39" s="123"/>
       <c r="J39" s="123"/>
@@ -22389,7 +22389,7 @@
       <c r="M39" s="123"/>
       <c r="N39" s="123"/>
       <c r="O39" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -22414,7 +22414,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="47"/>
       <c r="H40" s="123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I40" s="123"/>
       <c r="J40" s="123"/>
@@ -22423,7 +22423,7 @@
       <c r="M40" s="123"/>
       <c r="N40" s="123"/>
       <c r="O40" s="124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
@@ -22448,7 +22448,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="47"/>
       <c r="H41" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I41" s="123"/>
       <c r="J41" s="123"/>
@@ -22482,7 +22482,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="47"/>
       <c r="H42" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I42" s="123"/>
       <c r="J42" s="123"/>
@@ -22520,14 +22520,14 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="47"/>
       <c r="H44" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="47"/>
       <c r="H45" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I45" s="119"/>
       <c r="J45" s="119"/>
@@ -22536,12 +22536,12 @@
       <c r="M45" s="119"/>
       <c r="N45" s="119"/>
       <c r="O45" s="118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P45" s="119"/>
       <c r="Q45" s="119"/>
       <c r="R45" s="118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S45" s="119"/>
       <c r="T45" s="119"/>
@@ -22563,7 +22563,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="47"/>
       <c r="H46" s="129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I46" s="129"/>
       <c r="J46" s="129"/>
@@ -22572,12 +22572,12 @@
       <c r="M46" s="129"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P46" s="129"/>
       <c r="Q46" s="129"/>
       <c r="R46" s="130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S46" s="125"/>
       <c r="T46" s="125"/>
@@ -22599,7 +22599,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="47"/>
       <c r="H47" s="131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I47" s="131"/>
       <c r="J47" s="131"/>
@@ -22608,7 +22608,7 @@
       <c r="M47" s="131"/>
       <c r="N47" s="131"/>
       <c r="O47" s="132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P47" s="125"/>
       <c r="Q47" s="125"/>
@@ -22637,14 +22637,14 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="47"/>
       <c r="H49" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BG49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="47"/>
       <c r="H50" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I50" s="119"/>
       <c r="J50" s="119"/>
@@ -22653,7 +22653,7 @@
       <c r="M50" s="119"/>
       <c r="N50" s="119"/>
       <c r="O50" s="120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P50" s="121"/>
       <c r="Q50" s="121"/>
@@ -22662,7 +22662,7 @@
       <c r="T50" s="121"/>
       <c r="U50" s="121"/>
       <c r="V50" s="120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W50" s="121"/>
       <c r="X50" s="121"/>
@@ -22680,7 +22680,7 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="47"/>
       <c r="H51" s="133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I51" s="133"/>
       <c r="J51" s="133"/>
@@ -22689,7 +22689,7 @@
       <c r="M51" s="133"/>
       <c r="N51" s="133"/>
       <c r="O51" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
@@ -22698,7 +22698,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
@@ -22712,7 +22712,7 @@
       <c r="AF51" s="125"/>
       <c r="AG51" s="126"/>
       <c r="AJ51" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG51" s="48"/>
     </row>
@@ -22726,7 +22726,7 @@
       <c r="M52" s="133"/>
       <c r="N52" s="133"/>
       <c r="O52" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
@@ -22735,7 +22735,7 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
@@ -22760,7 +22760,7 @@
       <c r="M53" s="133"/>
       <c r="N53" s="133"/>
       <c r="O53" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -22769,7 +22769,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
@@ -22794,7 +22794,7 @@
       <c r="M54" s="133"/>
       <c r="N54" s="133"/>
       <c r="O54" s="124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -22803,7 +22803,7 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
@@ -22828,7 +22828,7 @@
       <c r="M55" s="133"/>
       <c r="N55" s="133"/>
       <c r="O55" s="124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
@@ -22837,7 +22837,7 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
@@ -22859,14 +22859,14 @@
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="47"/>
       <c r="H57" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BG57" s="48"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="47"/>
       <c r="I58" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BG58" s="48"/>
     </row>
@@ -22877,28 +22877,28 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="47"/>
       <c r="H60" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BG60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="47"/>
       <c r="I61" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG61" s="48"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="47"/>
       <c r="H62" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BG62" s="48"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="47"/>
       <c r="I63" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BG63" s="48"/>
     </row>
@@ -22909,7 +22909,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="47"/>
       <c r="E65" s="112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BG65" s="48"/>
     </row>
@@ -23044,7 +23044,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="4" width="12.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="26.4"/>
@@ -23057,34 +23057,34 @@
         <v>91</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E2" s="142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F2" s="142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H2" s="142" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J2" s="142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,7 +25110,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.59"/>
@@ -25121,7 +25121,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="144" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -25129,16 +25129,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25146,13 +25146,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" s="149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D3" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25160,13 +25160,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" s="149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="150" t="s">
         <v>317</v>
-      </c>
-      <c r="D4" s="150" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25174,13 +25174,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C5" s="151" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25188,13 +25188,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D6" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25202,13 +25202,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C7" s="149" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D7" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25216,13 +25216,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C8" s="149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D8" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25232,7 +25232,7 @@
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
       <c r="D9" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25242,7 +25242,7 @@
       <c r="B10" s="148"/>
       <c r="C10" s="148"/>
       <c r="D10" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25252,7 +25252,7 @@
       <c r="B11" s="148"/>
       <c r="C11" s="148"/>
       <c r="D11" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25262,7 +25262,7 @@
       <c r="B12" s="148"/>
       <c r="C12" s="148"/>
       <c r="D12" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25272,7 +25272,7 @@
       <c r="B13" s="148"/>
       <c r="C13" s="148"/>
       <c r="D13" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25282,7 +25282,7 @@
       <c r="B14" s="148"/>
       <c r="C14" s="148"/>
       <c r="D14" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25292,7 +25292,7 @@
       <c r="B15" s="148"/>
       <c r="C15" s="148"/>
       <c r="D15" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25302,7 +25302,7 @@
       <c r="B16" s="148"/>
       <c r="C16" s="148"/>
       <c r="D16" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -25335,87 +25335,87 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="142"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -25452,7 +25452,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="152" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="8.47"/>
@@ -25460,7 +25460,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25468,7 +25468,7 @@
         <v>44965</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25476,17 +25476,17 @@
         <v>44975</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -27322,7 +27322,7 @@
       <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
       <c r="AS1" s="26" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="AT1" s="26"/>
       <c r="AU1" s="26"/>
@@ -27754,46 +27754,46 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R18" s="56" t="s">
         <v>354</v>
@@ -28200,25 +28200,25 @@
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>371</v>
@@ -28393,7 +28393,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -28710,46 +28710,46 @@
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R33" s="56" t="s">
         <v>354</v>
@@ -28996,25 +28996,25 @@
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K36" s="39" t="s">
         <v>371</v>
@@ -29189,7 +29189,7 @@
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
       <c r="K38" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
@@ -29506,46 +29506,46 @@
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R47" s="56" t="s">
         <v>354</v>
@@ -29970,25 +29970,25 @@
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K52" s="39" t="s">
         <v>371</v>
@@ -30163,7 +30163,7 @@
       <c r="I54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
@@ -30714,7 +30714,7 @@
       <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
       <c r="AS1" s="26" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="AT1" s="26"/>
       <c r="AU1" s="26"/>
@@ -31146,46 +31146,46 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R18" s="56" t="s">
         <v>354</v>
@@ -31592,25 +31592,25 @@
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J22" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>371</v>
@@ -31785,7 +31785,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -32102,46 +32102,46 @@
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q33" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R33" s="56" t="s">
         <v>354</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J36" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K36" s="39" t="s">
         <v>371</v>
@@ -32581,7 +32581,7 @@
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
       <c r="K38" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
@@ -32898,46 +32898,46 @@
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R47" s="56" t="s">
         <v>354</v>
@@ -33362,25 +33362,25 @@
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J52" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K52" s="39" t="s">
         <v>371</v>
@@ -33555,7 +33555,7 @@
       <c r="I54" s="56"/>
       <c r="J54" s="56"/>
       <c r="K54" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
@@ -35794,7 +35794,7 @@
   <dimension ref="A1:BH43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35854,7 +35854,9 @@
       <c r="AP1" s="29"/>
       <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
-      <c r="AS1" s="26"/>
+      <c r="AS1" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="AT1" s="26"/>
       <c r="AU1" s="26"/>
       <c r="AV1" s="26"/>
@@ -37550,7 +37552,7 @@
       <selection pane="topLeft" activeCell="AE34" activeCellId="0" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="1" style="0" width="2.7"/>
   </cols>
@@ -37716,7 +37718,7 @@
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="BJ5" s="8"/>
       <c r="BK5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
@@ -37752,10 +37754,10 @@
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J11" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BJ11" s="13"/>
       <c r="BV11" s="14"/>
@@ -37774,10 +37776,10 @@
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R15" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BJ15" s="13"/>
       <c r="BV15" s="14"/>
@@ -37792,10 +37794,10 @@
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BJ18" s="13"/>
       <c r="BV18" s="14"/>
@@ -37806,7 +37808,7 @@
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AP20" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BJ20" s="13"/>
       <c r="BV20" s="14"/>
@@ -37836,10 +37838,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37847,10 +37849,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q27" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS27" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37931,7 +37933,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -38060,7 +38062,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38216,7 +38218,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="O16" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="51"/>
       <c r="Q16" s="51"/>
@@ -38236,7 +38238,7 @@
       <c r="AE16" s="50"/>
       <c r="AH16" s="50"/>
       <c r="AI16" s="51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ16" s="51"/>
       <c r="AK16" s="51"/>
@@ -38486,7 +38488,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -38494,7 +38496,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -38502,7 +38504,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -38523,7 +38525,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -38536,7 +38538,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -38560,7 +38562,7 @@
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -38568,7 +38570,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -38576,14 +38578,14 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
       <c r="V28" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -38630,7 +38632,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -38638,7 +38640,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
@@ -38646,14 +38648,14 @@
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
       <c r="V29" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -39263,7 +39265,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -39392,7 +39394,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39461,7 +39463,7 @@
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="47"/>
       <c r="C6" s="58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="59"/>
       <c r="AX6" s="60"/>
@@ -39493,17 +39495,17 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="E10" s="64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
       <c r="K10" s="65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="65"/>
       <c r="M10" s="65"/>
@@ -39515,19 +39517,19 @@
       <c r="S10" s="65"/>
       <c r="T10" s="65"/>
       <c r="U10" s="64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V10" s="64"/>
       <c r="W10" s="64"/>
       <c r="X10" s="66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y10" s="66"/>
       <c r="Z10" s="66"/>
       <c r="AA10" s="66"/>
       <c r="AB10" s="66"/>
       <c r="AC10" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
@@ -39554,7 +39556,7 @@
       <c r="AX10" s="64"/>
       <c r="AY10" s="67"/>
       <c r="AZ10" s="68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA10" s="68"/>
       <c r="BB10" s="68"/>
@@ -39672,7 +39674,7 @@
       <c r="AX12" s="64"/>
       <c r="AY12" s="72"/>
       <c r="AZ12" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA12" s="73"/>
       <c r="BB12" s="73"/>
@@ -39788,7 +39790,7 @@
       <c r="AX14" s="64"/>
       <c r="AY14" s="74"/>
       <c r="AZ14" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA14" s="75"/>
       <c r="BB14" s="75"/>
@@ -39904,7 +39906,7 @@
       <c r="AX16" s="64"/>
       <c r="AY16" s="74"/>
       <c r="AZ16" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA16" s="75"/>
       <c r="BB16" s="75"/>
@@ -40020,7 +40022,7 @@
       <c r="AX18" s="64"/>
       <c r="AY18" s="74"/>
       <c r="AZ18" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA18" s="75"/>
       <c r="BB18" s="75"/>
@@ -40136,7 +40138,7 @@
       <c r="AX20" s="64"/>
       <c r="AY20" s="74"/>
       <c r="AZ20" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA20" s="75"/>
       <c r="BB20" s="75"/>
@@ -40252,7 +40254,7 @@
       <c r="AX22" s="64"/>
       <c r="AY22" s="74"/>
       <c r="AZ22" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA22" s="75"/>
       <c r="BB22" s="75"/>
@@ -40447,7 +40449,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -40455,7 +40457,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -40463,7 +40465,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -40484,7 +40486,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -40497,7 +40499,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -40521,7 +40523,7 @@
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -40529,7 +40531,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -40537,14 +40539,14 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
       <c r="V28" s="39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -40558,7 +40560,7 @@
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI28" s="39"/>
       <c r="AJ28" s="39"/>
@@ -40593,7 +40595,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -40601,7 +40603,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
@@ -40659,7 +40661,7 @@
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -40667,7 +40669,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -40725,7 +40727,7 @@
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -40733,7 +40735,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -40791,7 +40793,7 @@
       </c>
       <c r="D32" s="56"/>
       <c r="E32" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -40799,7 +40801,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
       <c r="K32" s="56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
@@ -40857,7 +40859,7 @@
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -40865,7 +40867,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
       <c r="K33" s="56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
@@ -40931,7 +40933,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
       <c r="K34" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -40989,7 +40991,7 @@
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -41003,14 +41005,14 @@
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
       <c r="T35" s="39"/>
       <c r="U35" s="39"/>
       <c r="V35" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
@@ -41058,7 +41060,7 @@
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -41072,14 +41074,14 @@
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
       <c r="V36" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
@@ -41455,7 +41457,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -41584,7 +41586,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41615,7 +41617,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="57"/>
       <c r="J5" s="78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="78"/>
       <c r="L5" s="78"/>
@@ -41634,12 +41636,12 @@
       <c r="Y5" s="78"/>
       <c r="Z5" s="78"/>
       <c r="AA5" s="79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB5" s="79"/>
       <c r="AC5" s="79"/>
       <c r="AD5" s="79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE5" s="79"/>
       <c r="AF5" s="79"/>
@@ -41650,7 +41652,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="79"/>
       <c r="AM5" s="80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN5" s="80"/>
       <c r="AO5" s="80"/>
@@ -41681,7 +41683,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="47"/>
       <c r="C6" s="81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
@@ -41751,7 +41753,7 @@
       <c r="H7" s="81"/>
       <c r="I7" s="59"/>
       <c r="J7" s="66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41786,7 +41788,7 @@
       <c r="AK7" s="83"/>
       <c r="AL7" s="83"/>
       <c r="AM7" s="64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
@@ -41805,7 +41807,7 @@
       <c r="AZ7" s="83"/>
       <c r="BA7" s="83"/>
       <c r="BB7" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC7" s="64"/>
       <c r="BD7" s="64"/>
@@ -41877,7 +41879,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -41887,7 +41889,7 @@
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
       <c r="J9" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9" s="64"/>
       <c r="L9" s="64"/>
@@ -41926,7 +41928,7 @@
       <c r="AS9" s="64"/>
       <c r="AT9" s="64"/>
       <c r="AU9" s="64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV9" s="64"/>
       <c r="AW9" s="64"/>
@@ -41937,7 +41939,7 @@
       <c r="BB9" s="64"/>
       <c r="BC9" s="64"/>
       <c r="BD9" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BE9" s="66"/>
       <c r="BF9" s="66"/>
@@ -42099,7 +42101,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="E13" s="85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="87"/>
@@ -42114,7 +42116,7 @@
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
@@ -42124,7 +42126,7 @@
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
       <c r="O14" s="64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
@@ -42133,7 +42135,7 @@
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
       <c r="V14" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W14" s="64"/>
       <c r="X14" s="64"/>
@@ -42145,7 +42147,7 @@
       <c r="AD14" s="64"/>
       <c r="AE14" s="64"/>
       <c r="AF14" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG14" s="64"/>
       <c r="AH14" s="64"/>
@@ -42275,7 +42277,7 @@
       <c r="AX16" s="64"/>
       <c r="AY16" s="90"/>
       <c r="AZ16" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA16" s="91"/>
       <c r="BB16" s="91"/>
@@ -42393,7 +42395,7 @@
       <c r="AX18" s="64"/>
       <c r="AY18" s="92"/>
       <c r="AZ18" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA18" s="91"/>
       <c r="BB18" s="91"/>
@@ -42511,7 +42513,7 @@
       <c r="AX20" s="64"/>
       <c r="AY20" s="92"/>
       <c r="AZ20" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA20" s="91"/>
       <c r="BB20" s="91"/>
@@ -42629,7 +42631,7 @@
       <c r="AX22" s="64"/>
       <c r="AY22" s="92"/>
       <c r="AZ22" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA22" s="91"/>
       <c r="BB22" s="91"/>
@@ -42747,7 +42749,7 @@
       <c r="AX24" s="64"/>
       <c r="AY24" s="92"/>
       <c r="AZ24" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA24" s="91"/>
       <c r="BB24" s="91"/>
@@ -42882,7 +42884,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -42890,7 +42892,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -42898,7 +42900,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -42919,7 +42921,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -42932,7 +42934,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -42964,7 +42966,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -42972,7 +42974,7 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
@@ -42991,7 +42993,7 @@
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI28" s="39"/>
       <c r="AJ28" s="39"/>
@@ -43026,7 +43028,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -43034,7 +43036,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
@@ -43092,7 +43094,7 @@
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -43100,7 +43102,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -43158,7 +43160,7 @@
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -43166,7 +43168,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -43224,7 +43226,7 @@
       </c>
       <c r="D32" s="56"/>
       <c r="E32" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -43232,7 +43234,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
       <c r="K32" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
@@ -43290,7 +43292,7 @@
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -43298,7 +43300,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
       <c r="K33" s="56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
@@ -43364,7 +43366,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
       <c r="K34" s="56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -43430,7 +43432,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
       <c r="K35" s="56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
@@ -43490,7 +43492,7 @@
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -43498,7 +43500,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
       <c r="K36" s="56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L36" s="56"/>
       <c r="M36" s="56"/>
@@ -43558,7 +43560,7 @@
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -43566,7 +43568,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
       <c r="K37" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
@@ -43626,7 +43628,7 @@
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
@@ -43634,7 +43636,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
       <c r="K38" s="56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
@@ -43694,7 +43696,7 @@
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
@@ -43702,7 +43704,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L39" s="56"/>
       <c r="M39" s="56"/>
@@ -43770,7 +43772,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L40" s="56"/>
       <c r="M40" s="56"/>
@@ -43830,7 +43832,7 @@
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
@@ -43844,14 +43846,14 @@
       <c r="O41" s="56"/>
       <c r="P41" s="56"/>
       <c r="Q41" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
       <c r="T41" s="39"/>
       <c r="U41" s="39"/>
       <c r="V41" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
@@ -44257,7 +44259,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -44386,7 +44388,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44394,7 +44396,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
@@ -44404,7 +44406,7 @@
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
       <c r="J5" s="95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -44423,12 +44425,12 @@
       <c r="Y5" s="95"/>
       <c r="Z5" s="95"/>
       <c r="AA5" s="79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB5" s="79"/>
       <c r="AC5" s="79"/>
       <c r="AD5" s="79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE5" s="79"/>
       <c r="AF5" s="79"/>
@@ -44439,7 +44441,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="79"/>
       <c r="AM5" s="96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN5" s="96"/>
       <c r="AO5" s="96"/>
@@ -44652,7 +44654,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
@@ -44699,7 +44701,7 @@
       <c r="AS9" s="64"/>
       <c r="AT9" s="64"/>
       <c r="AU9" s="64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV9" s="64"/>
       <c r="AW9" s="64"/>
@@ -44867,7 +44869,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="C13" s="85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87"/>
@@ -44882,7 +44884,7 @@
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
@@ -44892,7 +44894,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
       <c r="P14" s="64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="64"/>
       <c r="R14" s="64"/>
@@ -44901,7 +44903,7 @@
       <c r="U14" s="64"/>
       <c r="V14" s="64"/>
       <c r="W14" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X14" s="64"/>
       <c r="Y14" s="64"/>
@@ -44913,7 +44915,7 @@
       <c r="AE14" s="64"/>
       <c r="AF14" s="64"/>
       <c r="AG14" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AH14" s="64"/>
       <c r="AI14" s="64"/>
@@ -45629,7 +45631,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -45637,7 +45639,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -45645,7 +45647,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -45666,7 +45668,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -45679,7 +45681,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -45711,7 +45713,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -45736,7 +45738,7 @@
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI28" s="99"/>
       <c r="AJ28" s="99"/>
@@ -45771,7 +45773,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -45779,7 +45781,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
@@ -45792,7 +45794,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
       <c r="V29" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -45839,7 +45841,7 @@
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -45847,7 +45849,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -45905,7 +45907,7 @@
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -45913,7 +45915,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -45971,7 +45973,7 @@
       </c>
       <c r="D32" s="56"/>
       <c r="E32" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -45979,7 +45981,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
       <c r="K32" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
@@ -46004,7 +46006,7 @@
       <c r="AF32" s="39"/>
       <c r="AG32" s="39"/>
       <c r="AH32" s="39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI32" s="39"/>
       <c r="AJ32" s="39"/>
@@ -46039,7 +46041,7 @@
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -46047,7 +46049,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
       <c r="K33" s="56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
@@ -46113,7 +46115,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
       <c r="K34" s="56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -46126,7 +46128,7 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
       <c r="V34" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
@@ -46181,7 +46183,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
       <c r="K35" s="56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
@@ -46240,7 +46242,7 @@
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -46248,7 +46250,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
       <c r="K36" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
@@ -46261,7 +46263,7 @@
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
       <c r="V36" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
@@ -46309,7 +46311,7 @@
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -46317,7 +46319,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
       <c r="K37" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -46375,7 +46377,7 @@
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
@@ -46383,7 +46385,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
       <c r="K38" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
@@ -46441,7 +46443,7 @@
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
@@ -46449,7 +46451,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" s="39"/>
       <c r="M39" s="39"/>
@@ -46507,7 +46509,7 @@
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
@@ -46515,7 +46517,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="39"/>
@@ -46581,7 +46583,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L41" s="39"/>
       <c r="M41" s="39"/>
@@ -46868,7 +46870,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -46997,7 +46999,7 @@
     </row>
     <row r="3" s="36" customFormat="true" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -47005,7 +47007,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
@@ -47098,80 +47100,80 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="69"/>
       <c r="C10" s="64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
       <c r="I10" s="64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
       <c r="V10" s="64"/>
       <c r="W10" s="64"/>
       <c r="X10" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="64"/>
       <c r="Z10" s="64"/>
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64"/>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AI10" s="64"/>
       <c r="AJ10" s="64"/>
       <c r="AK10" s="64"/>
       <c r="AL10" s="64"/>
       <c r="AM10" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
       <c r="AP10" s="64"/>
       <c r="AQ10" s="64"/>
       <c r="AR10" s="64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS10" s="64"/>
       <c r="AT10" s="64"/>
       <c r="AU10" s="64"/>
       <c r="AV10" s="64"/>
       <c r="AW10" s="64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX10" s="64"/>
       <c r="AY10" s="64"/>
       <c r="AZ10" s="64"/>
       <c r="BA10" s="64"/>
       <c r="BB10" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BC10" s="64"/>
       <c r="BD10" s="64"/>
@@ -47242,7 +47244,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
@@ -47250,28 +47252,28 @@
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O12" s="64"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="64"/>
       <c r="S12" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
       <c r="V12" s="64"/>
       <c r="W12" s="64"/>
       <c r="X12" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y12" s="64"/>
       <c r="Z12" s="64"/>
@@ -47376,7 +47378,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="69"/>
       <c r="C14" s="64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -47384,28 +47386,28 @@
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
       <c r="I14" s="64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O14" s="64"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
       <c r="R14" s="64"/>
       <c r="S14" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
       <c r="V14" s="64"/>
       <c r="W14" s="64"/>
       <c r="X14" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y14" s="64"/>
       <c r="Z14" s="64"/>
@@ -47510,7 +47512,7 @@
     <row r="16" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="69"/>
       <c r="C16" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -47518,35 +47520,35 @@
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
       <c r="I16" s="64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
       <c r="V16" s="64"/>
       <c r="W16" s="64"/>
       <c r="X16" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y16" s="64"/>
       <c r="Z16" s="64"/>
       <c r="AA16" s="64"/>
       <c r="AB16" s="64"/>
       <c r="AC16" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD16" s="64"/>
       <c r="AE16" s="64"/>
@@ -47646,7 +47648,7 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -47654,35 +47656,35 @@
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
       <c r="N18" s="64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="64"/>
       <c r="R18" s="64"/>
       <c r="S18" s="64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T18" s="64"/>
       <c r="U18" s="64"/>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
       <c r="X18" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y18" s="64"/>
       <c r="Z18" s="64"/>
       <c r="AA18" s="64"/>
       <c r="AB18" s="64"/>
       <c r="AC18" s="64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD18" s="64"/>
       <c r="AE18" s="64"/>
@@ -47703,14 +47705,14 @@
       <c r="AP18" s="64"/>
       <c r="AQ18" s="64"/>
       <c r="AR18" s="64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AS18" s="64"/>
       <c r="AT18" s="64"/>
       <c r="AU18" s="64"/>
       <c r="AV18" s="64"/>
       <c r="AW18" s="64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX18" s="64"/>
       <c r="AY18" s="64"/>
@@ -48154,7 +48156,7 @@
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -48162,7 +48164,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
@@ -48170,7 +48172,7 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -48191,7 +48193,7 @@
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
@@ -48204,7 +48206,7 @@
       <c r="AQ27" s="39"/>
       <c r="AR27" s="39"/>
       <c r="AS27" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="39"/>
       <c r="AU27" s="39"/>
@@ -48228,7 +48230,7 @@
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -48236,7 +48238,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
@@ -48244,14 +48246,14 @@
       <c r="O28" s="56"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
       <c r="V28" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -48298,7 +48300,7 @@
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -48306,7 +48308,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
@@ -48314,14 +48316,14 @@
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
       <c r="V29" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -48368,7 +48370,7 @@
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -48376,7 +48378,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
       <c r="K30" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -48384,14 +48386,14 @@
       <c r="O30" s="56"/>
       <c r="P30" s="56"/>
       <c r="Q30" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
       <c r="V30" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
@@ -48438,7 +48440,7 @@
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -48446,7 +48448,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
@@ -48454,14 +48456,14 @@
       <c r="O31" s="56"/>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R31" s="56"/>
       <c r="S31" s="56"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
       <c r="V31" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
